--- a/Example/potreb.xlsx
+++ b/Example/potreb.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siroja/Desktop/work/testing/PrPr_example/Справочники с подгоном — копия/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SevenWinds\Desktop\Справочники с подгоном — копия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93936F-726B-6043-A926-4080E0B7B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
-  <si>
-    <t>Проект</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Генподрядчик</t>
   </si>
@@ -108,9 +104,6 @@
     <t>Ед. изм. базовая</t>
   </si>
   <si>
-    <t>СТЭП</t>
-  </si>
-  <si>
     <t>Титул 010</t>
   </si>
   <si>
@@ -145,9 +138,6 @@
   </si>
   <si>
     <t>м3</t>
-  </si>
-  <si>
-    <t>НМЗ-НСК</t>
   </si>
   <si>
     <t>Кирпич</t>
@@ -165,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -636,153 +626,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="21" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.83203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="16.5" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="5"/>
+    <col min="13" max="13" width="14.42578125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D2" s="3">
         <v>44589</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -791,25 +773,25 @@
         <v>5</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P2" s="1">
         <v>3111869</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1">
         <v>15</v>
@@ -821,16 +803,16 @@
         <v>44525</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="10">
         <v>44625</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="4">
         <v>2500</v>
@@ -839,33 +821,29 @@
         <v>1</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3">
         <v>44589</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -874,25 +852,25 @@
         <v>5</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="1">
         <v>3111869</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1">
         <v>15</v>
@@ -904,16 +882,16 @@
         <v>44525</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="10">
         <v>44625</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="4">
         <v>500</v>
@@ -922,7 +900,7 @@
         <v>1.4</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Example/potreb.xlsx
+++ b/Example/potreb.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SevenWinds\Desktop\Справочники с подгоном — копия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siroja/Desktop/work/testing/Automate QA/7Winds_Projects/Procurement_QA/Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78307718-5BAB-4D40-997E-8F018A697104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Генподрядчик</t>
   </si>
@@ -150,12 +151,15 @@
   </si>
   <si>
     <t>А.4</t>
+  </si>
+  <si>
+    <t>СТЭП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -626,49 +630,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="5" customWidth="1"/>
     <col min="12" max="12" width="21" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="5"/>
+    <col min="13" max="13" width="14.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -745,9 +751,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
@@ -824,9 +832,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
       <c r="C3" s="14" t="s">
         <v>41</v>
       </c>
